--- a/datasets/BSA_bindingdrugs.xlsx
+++ b/datasets/BSA_bindingdrugs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebert\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7ED66E-390C-4CBB-8457-0EAA87AD9499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF66C104-582A-470B-A306-27D5847B9144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -991,7 +991,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1058,7 +1058,7 @@
         <v>3785</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H2">
         <v>0.05</v>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="K2">
         <f t="shared" ref="K2:K3" si="0">IF(G2="Use Eq. 2",LOG10(10^(H2)+10^(I2)*10^(J2))-LOG10(1+10^(J2)),H2-LOG10(1+10^(J2)))</f>
-        <v>4.9997403604109557E-2</v>
+        <v>4.9997259795714503E-2</v>
       </c>
       <c r="M2" t="s">
         <v>36</v>
@@ -1124,7 +1124,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D4">
         <v>7</v>
@@ -1146,11 +1146,11 @@
       </c>
       <c r="J4">
         <f t="shared" si="1"/>
-        <v>0.40000000000000036</v>
+        <v>-0.40000000000000036</v>
       </c>
       <c r="K4">
         <f>IF(G4="Use Eq. 2",LOG10(10^(H4)+10^(I4)*10^(J4))-LOG10(1+10^(J4)),H4-LOG10(1+10^(J4)))</f>
-        <v>-1.5055404631092939</v>
+        <v>-1.1055404631092935</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1210,7 +1210,7 @@
         <v>35000</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6">
         <v>1.19</v>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="K6">
         <f t="shared" si="2"/>
-        <v>-2.7100546709946847</v>
+        <v>-2.150115984497055</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1247,7 +1247,7 @@
         <v>25000</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H7">
         <v>2.2599999999999998</v>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="K7">
         <f t="shared" si="2"/>
-        <v>-2.2400137333802386</v>
+        <v>-0.96625353564609773</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
